--- a/output/1Y_P55_1VAL-D.xlsx
+++ b/output/1Y_P55_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>635.1908</v>
       </c>
-      <c r="G2" s="1">
-        <v>635.1908</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E3" s="1">
+        <v>635.1908</v>
+      </c>
       <c r="F3" s="1">
         <v>617.5355</v>
       </c>
-      <c r="G3" s="1">
-        <v>1252.7264</v>
-      </c>
       <c r="H3" s="1">
-        <v>20180.6704</v>
+        <v>10232.5434</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9652</v>
+        <v>10232.5434</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.7433</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20180.6704</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0117</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E4" s="1">
+        <v>1252.7264</v>
+      </c>
       <c r="F4" s="1">
         <v>656.9525</v>
       </c>
-      <c r="G4" s="1">
-        <v>1909.6789</v>
-      </c>
       <c r="H4" s="1">
-        <v>28918.0768</v>
+        <v>18969.9103</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7094</v>
+        <v>18969.9103</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9652</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28918.0768</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0418</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E5" s="1">
+        <v>1909.6789</v>
+      </c>
       <c r="F5" s="1">
         <v>710.722</v>
       </c>
-      <c r="G5" s="1">
-        <v>2620.4009</v>
-      </c>
       <c r="H5" s="1">
-        <v>36678.537</v>
+        <v>26730.3486</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.2648</v>
+        <v>26730.3486</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7094</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36678.537</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0575</v>
+        <v>-0.07729999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E6" s="1">
+        <v>2620.4009</v>
+      </c>
       <c r="F6" s="1">
         <v>722.1468</v>
       </c>
-      <c r="G6" s="1">
-        <v>3342.5477</v>
-      </c>
       <c r="H6" s="1">
-        <v>46046.2681</v>
+        <v>36098.1182</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9586</v>
+        <v>36098.1182</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.2648</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46046.2681</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0135</v>
+        <v>-0.0172</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E7" s="1">
+        <v>3342.5477</v>
+      </c>
       <c r="F7" s="1">
         <v>684.0647</v>
       </c>
-      <c r="G7" s="1">
-        <v>4026.6124</v>
-      </c>
       <c r="H7" s="1">
-        <v>58557.8158</v>
+        <v>48609.6679</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.9009</v>
+        <v>48609.6679</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.9586</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58557.8158</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0448</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E8" s="1">
+        <v>4026.6124</v>
+      </c>
       <c r="F8" s="1">
         <v>656.3273</v>
       </c>
-      <c r="G8" s="1">
-        <v>4682.9397</v>
-      </c>
       <c r="H8" s="1">
-        <v>70980.7219</v>
+        <v>61032.5717</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9479</v>
+        <v>61032.5717</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.9009</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70980.7219</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0353</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E9" s="1">
+        <v>4682.9397</v>
+      </c>
       <c r="F9" s="1">
         <v>628.5474</v>
       </c>
-      <c r="G9" s="1">
-        <v>5311.4871</v>
-      </c>
       <c r="H9" s="1">
-        <v>84065.96799999999</v>
+        <v>74117.8232</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0617</v>
+        <v>74117.8232</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.9479</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84065.96799999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0381</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E10" s="1">
+        <v>5311.4871</v>
+      </c>
       <c r="F10" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G10" s="1">
-        <v>5961.2216</v>
-      </c>
       <c r="H10" s="1">
-        <v>91272.8607</v>
+        <v>81324.7095</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0976</v>
+        <v>81324.7095</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.0617</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91272.8607</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0297</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E11" s="1">
+        <v>5961.2216</v>
+      </c>
       <c r="F11" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G11" s="1">
-        <v>6581.9734</v>
-      </c>
       <c r="H11" s="1">
-        <v>105482.7053</v>
+        <v>95534.53810000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.193</v>
+        <v>95534.53810000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.0976</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105482.7053</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0416</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E12" s="1">
+        <v>6581.9734</v>
+      </c>
       <c r="F12" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G12" s="1">
-        <v>7202.2361</v>
-      </c>
       <c r="H12" s="1">
-        <v>115513.7842</v>
+        <v>105565.6382</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.273</v>
+        <v>105565.6382</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>15.193</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.2</v>
       </c>
-      <c r="L12" s="1">
-        <v>1184.7552</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-8815.2448</v>
+        <v>1073.0199</v>
       </c>
       <c r="O12" s="1">
-        <v>1184.7552</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116698.5394</v>
+        <v>-8926.980100000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0105</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E13" s="1">
+        <v>7202.2361</v>
+      </c>
       <c r="F13" s="1">
-        <v>644.8292</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7847.0653</v>
+        <v>638.3873</v>
       </c>
       <c r="H13" s="1">
-        <v>135403.4655</v>
+        <v>124276.7449</v>
       </c>
       <c r="I13" s="1">
-        <v>121184.7552</v>
+        <v>1073.0199</v>
       </c>
       <c r="J13" s="1">
-        <v>15.4433</v>
+        <v>125349.7648</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111073.0199</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.422</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11184.7552</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>135403.4655</v>
+        <v>-11073.0199</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0687</v>
+        <v>0.0847</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E14" s="1">
+        <v>7840.6235</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7847.0653</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7202.2361</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>139439.2157</v>
       </c>
       <c r="I14" s="1">
-        <v>121184.7552</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.4433</v>
+        <v>139439.2157</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111073.0199</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.1664</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>139553.7783</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>139553.7783</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>139553.7783</v>
+        <v>128086.0076</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0402</v>
+        <v>0.0302</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.7433</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>635.1908</v>
       </c>
       <c r="G2" s="1">
-        <v>635.1908</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.1934</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>635.1908</v>
       </c>
       <c r="F3" s="1">
         <v>606.3203</v>
       </c>
       <c r="G3" s="1">
-        <v>1241.5112</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10232.5434</v>
       </c>
       <c r="I3" s="1">
-        <v>19818.3875</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9631</v>
+        <v>10232.5434</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9818.387500000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.4574</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9818.387500000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>181.6125</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20181.6125</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0117</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.2218</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1241.5112</v>
       </c>
       <c r="F4" s="1">
         <v>668.8836</v>
       </c>
       <c r="G4" s="1">
-        <v>1910.3948</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>28928.917</v>
+        <v>18800.0795</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>181.6125</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7036</v>
+        <v>18981.6919</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.1094</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10181.6125</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28928.917</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0415</v>
+        <v>-0.0618</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.0702</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1910.3948</v>
       </c>
       <c r="F5" s="1">
         <v>710.722</v>
       </c>
       <c r="G5" s="1">
-        <v>2621.1167</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>36688.5571</v>
+        <v>26740.3687</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.2607</v>
+        <v>26740.3687</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7036</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36688.5571</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0576</v>
+        <v>-0.07729999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.8476</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2621.1167</v>
       </c>
       <c r="F6" s="1">
         <v>722.1468</v>
       </c>
       <c r="G6" s="1">
-        <v>3343.2635</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>46056.1296</v>
+        <v>36107.9798</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9554</v>
+        <v>36107.9798</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.2607</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46056.1296</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0135</v>
+        <v>-0.0172</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.6185</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3343.2635</v>
       </c>
       <c r="F7" s="1">
         <v>684.0647</v>
       </c>
       <c r="G7" s="1">
-        <v>4027.3282</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>58568.2263</v>
+        <v>48620.0784</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8982</v>
+        <v>48620.0784</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.9554</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58568.2263</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0448</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.2363</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4027.3282</v>
       </c>
       <c r="F8" s="1">
         <v>590.9085</v>
       </c>
       <c r="G8" s="1">
-        <v>4618.2368</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61043.4222</v>
       </c>
       <c r="I8" s="1">
-        <v>69003.2595</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9415</v>
+        <v>61043.4222</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59003.2595</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.6507</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9003.2595</v>
       </c>
-      <c r="O8" s="1">
-        <v>996.7405</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70996.7405</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0354</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.9097</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4618.2368</v>
       </c>
       <c r="F9" s="1">
         <v>436.3528</v>
       </c>
       <c r="G9" s="1">
-        <v>5054.5896</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>73093.7568</v>
       </c>
       <c r="I9" s="1">
-        <v>75945.5018</v>
+        <v>996.7405</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0251</v>
+        <v>74090.4973</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65945.5018</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.2794</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6942.2423</v>
       </c>
-      <c r="O9" s="1">
-        <v>4054.4982</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84054.4982</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0378</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.3909</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5054.5896</v>
       </c>
       <c r="F10" s="1">
         <v>823.4989</v>
       </c>
       <c r="G10" s="1">
-        <v>5878.0884</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>77391.3263</v>
       </c>
       <c r="I10" s="1">
-        <v>88619.8907</v>
+        <v>4054.4982</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0763</v>
+        <v>81445.8245</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78619.8907</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.5542</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12674.3889</v>
       </c>
-      <c r="O10" s="1">
-        <v>1380.1093</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91380.1093</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0284</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.1095</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5878.0884</v>
       </c>
       <c r="F11" s="1">
         <v>361.7718</v>
       </c>
       <c r="G11" s="1">
-        <v>6239.8602</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>94202.2454</v>
       </c>
       <c r="I11" s="1">
-        <v>94447.8532</v>
+        <v>1380.1093</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1362</v>
+        <v>95582.3547</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84447.8532</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.3666</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5827.9625</v>
       </c>
-      <c r="O11" s="1">
-        <v>5552.1468</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105552.1468</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0412</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.1222</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6239.8602</v>
       </c>
       <c r="F12" s="1">
         <v>618.5938</v>
       </c>
       <c r="G12" s="1">
-        <v>6858.454</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>100078.6222</v>
       </c>
       <c r="I12" s="1">
-        <v>104420.9454</v>
+        <v>5552.1468</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2251</v>
+        <v>105630.769</v>
       </c>
       <c r="K12" s="1">
+        <v>94420.9454</v>
+      </c>
+      <c r="L12" s="1">
+        <v>15.1319</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.2</v>
       </c>
-      <c r="L12" s="1">
-        <v>1123.1748</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-8849.9174</v>
+        <v>1058.0559</v>
       </c>
       <c r="O12" s="1">
-        <v>6702.2294</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116702.2294</v>
+        <v>-8915.0363</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.01</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.3453</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6858.454</v>
       </c>
       <c r="F13" s="1">
         <v>95.931</v>
       </c>
       <c r="G13" s="1">
-        <v>6954.385</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>118344.681</v>
       </c>
       <c r="I13" s="1">
-        <v>106084.8983</v>
+        <v>6637.1105</v>
       </c>
       <c r="J13" s="1">
-        <v>15.2544</v>
+        <v>124981.7914</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>96084.8983</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.0097</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-1663.9528</v>
       </c>
-      <c r="O13" s="1">
-        <v>15038.2766</v>
-      </c>
-      <c r="P13" s="1">
-        <v>135038.2766</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0658</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.8769</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6954.385</v>
       </c>
       <c r="F14" s="1">
         <v>-6954.385</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123678.1742</v>
       </c>
       <c r="I14" s="1">
-        <v>106084.8983</v>
+        <v>14973.1577</v>
       </c>
       <c r="J14" s="1">
-        <v>15.2544</v>
+        <v>138651.3319</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>96084.8983</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.8164</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123678.1742</v>
       </c>
-      <c r="O14" s="1">
-        <v>138716.4508</v>
-      </c>
-      <c r="P14" s="1">
-        <v>138716.4508</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0436</v>
+        <v>0.0272</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.7433</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>635.1908</v>
       </c>
       <c r="G2" s="1">
-        <v>635.1908</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.1934</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>635.1908</v>
       </c>
       <c r="F3" s="1">
         <v>609.4241</v>
       </c>
       <c r="G3" s="1">
-        <v>1244.6149</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10232.5434</v>
       </c>
       <c r="I3" s="1">
-        <v>19868.6483</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9637</v>
+        <v>10232.5434</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9868.648300000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.5365</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9868.648300000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>131.3517</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20181.3517</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0117</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.2218</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1244.6149</v>
       </c>
       <c r="F4" s="1">
         <v>665.5817</v>
       </c>
       <c r="G4" s="1">
-        <v>1910.1967</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28925.917</v>
+        <v>18847.0797</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>131.3517</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7052</v>
+        <v>18978.4314</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.0692</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10131.3517</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28925.917</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0416</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.0702</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1910.1967</v>
       </c>
       <c r="F5" s="1">
         <v>710.722</v>
       </c>
       <c r="G5" s="1">
-        <v>2620.9186</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>36685.7841</v>
+        <v>26737.5957</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.2618</v>
+        <v>26737.5957</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7052</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36685.7841</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0575</v>
+        <v>-0.07729999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.8476</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2620.9186</v>
       </c>
       <c r="F6" s="1">
         <v>722.1468</v>
       </c>
       <c r="G6" s="1">
-        <v>3343.0654</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>46053.4005</v>
+        <v>36105.2506</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9563</v>
+        <v>36105.2506</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.2618</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46053.4005</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0135</v>
+        <v>-0.0172</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.6185</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3343.0654</v>
       </c>
       <c r="F7" s="1">
         <v>684.0647</v>
       </c>
       <c r="G7" s="1">
-        <v>4027.1301</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>58565.3452</v>
+        <v>48617.1973</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8989</v>
+        <v>48617.1973</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.9563</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58565.3452</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0448</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.2363</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4027.1301</v>
       </c>
       <c r="F8" s="1">
         <v>656.3273</v>
       </c>
       <c r="G8" s="1">
-        <v>4683.4574</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70988.5695</v>
+        <v>61040.4194</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9462</v>
+        <v>61040.4194</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8989</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70988.5695</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0353</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.9097</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4683.4574</v>
       </c>
       <c r="F9" s="1">
         <v>460.4775</v>
       </c>
       <c r="G9" s="1">
-        <v>5143.935</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>74126.0177</v>
       </c>
       <c r="I9" s="1">
-        <v>77326.05959999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0325</v>
+        <v>74126.0177</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67326.05959999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.3753</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7326.0596</v>
       </c>
-      <c r="O9" s="1">
-        <v>2673.9404</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84088.02830000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0383</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.3909</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5143.935</v>
       </c>
       <c r="F10" s="1">
         <v>823.4697</v>
       </c>
       <c r="G10" s="1">
-        <v>5967.4047</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91367.53049999999</v>
+        <v>78759.303</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>2673.9404</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0819</v>
+        <v>81433.24340000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.5523</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12673.9404</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91367.53049999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0289</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.1095</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5967.4047</v>
       </c>
       <c r="F11" s="1">
         <v>414.7408</v>
       </c>
       <c r="G11" s="1">
-        <v>6382.1455</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95633.62820000001</v>
       </c>
       <c r="I11" s="1">
-        <v>96681.26669999999</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1487</v>
+        <v>95633.62820000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86681.26669999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.5258</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6681.2667</v>
       </c>
-      <c r="O11" s="1">
-        <v>3318.7333</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105598.9973</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0417</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.1222</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6382.1455</v>
       </c>
       <c r="F12" s="1">
         <v>650.3676</v>
       </c>
       <c r="G12" s="1">
-        <v>7032.5131</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>102360.6791</v>
       </c>
       <c r="I12" s="1">
-        <v>107166.6238</v>
+        <v>3318.7333</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2387</v>
+        <v>105679.4124</v>
       </c>
       <c r="K12" s="1">
+        <v>97166.6238</v>
+      </c>
+      <c r="L12" s="1">
+        <v>15.2248</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.2</v>
       </c>
-      <c r="L12" s="1">
-        <v>1148.7862</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-9336.5708</v>
+        <v>1074.1329</v>
       </c>
       <c r="O12" s="1">
-        <v>3982.1624</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116773.8278</v>
+        <v>-9411.224200000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0102</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.3453</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7032.5131</v>
       </c>
       <c r="F13" s="1">
         <v>116.341</v>
       </c>
       <c r="G13" s="1">
-        <v>7148.8542</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>121348.1242</v>
       </c>
       <c r="I13" s="1">
-        <v>109184.594</v>
+        <v>3907.5091</v>
       </c>
       <c r="J13" s="1">
-        <v>15.273</v>
+        <v>125255.6332</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>99184.594</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.1037</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2017.9703</v>
       </c>
-      <c r="O13" s="1">
-        <v>11964.1922</v>
-      </c>
-      <c r="P13" s="1">
-        <v>135319.8159</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0674</v>
+        <v>0.0828</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.8769</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7148.8542</v>
       </c>
       <c r="F14" s="1">
         <v>-7148.8542</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127136.6527</v>
       </c>
       <c r="I14" s="1">
-        <v>109184.594</v>
+        <v>11889.5388</v>
       </c>
       <c r="J14" s="1">
-        <v>15.273</v>
+        <v>139026.1915</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>99184.594</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.8742</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127136.6527</v>
       </c>
-      <c r="O14" s="1">
-        <v>139100.8449</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139100.8449</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0428</v>
+        <v>0.0279</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.7433</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>635.1908</v>
       </c>
       <c r="G2" s="1">
-        <v>635.1908</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.1934</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>635.1908</v>
       </c>
       <c r="F3" s="1">
         <v>612.5279</v>
       </c>
       <c r="G3" s="1">
-        <v>1247.7187</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10232.5434</v>
       </c>
       <c r="I3" s="1">
-        <v>19918.909</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9643</v>
+        <v>10232.5434</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9918.909</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.6156</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9918.909</v>
       </c>
-      <c r="O3" s="1">
-        <v>81.09099999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20181.091</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0117</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.2218</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1247.7187</v>
       </c>
       <c r="F4" s="1">
         <v>662.2798</v>
       </c>
       <c r="G4" s="1">
-        <v>1909.9985</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>28922.917</v>
+        <v>18894.0799</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>81.09099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7068</v>
+        <v>18975.1709</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.0293</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10081.091</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28922.917</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0417</v>
+        <v>-0.0621</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.0702</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1909.9985</v>
       </c>
       <c r="F5" s="1">
         <v>710.722</v>
       </c>
       <c r="G5" s="1">
-        <v>2620.7205</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>36683.011</v>
+        <v>26734.8227</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.263</v>
+        <v>26734.8227</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7068</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36683.011</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0575</v>
+        <v>-0.07729999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.8476</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2620.7205</v>
       </c>
       <c r="F6" s="1">
         <v>722.1468</v>
       </c>
       <c r="G6" s="1">
-        <v>3342.8673</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>46050.6713</v>
+        <v>36102.5214</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9572</v>
+        <v>36102.5214</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.263</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46050.6713</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0135</v>
+        <v>-0.0172</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.6185</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3342.8673</v>
       </c>
       <c r="F7" s="1">
         <v>684.0647</v>
       </c>
       <c r="G7" s="1">
-        <v>4026.932</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>58562.4641</v>
+        <v>48614.3162</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.8997</v>
+        <v>48614.3162</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.9572</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58562.4641</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0448</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.2363</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4026.932</v>
       </c>
       <c r="F8" s="1">
         <v>656.3273</v>
       </c>
       <c r="G8" s="1">
-        <v>4683.2593</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70985.5667</v>
+        <v>61037.4165</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9469</v>
+        <v>61037.4165</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.8997</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70985.5667</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0353</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.9097</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4683.2593</v>
       </c>
       <c r="F9" s="1">
         <v>551.8237</v>
       </c>
       <c r="G9" s="1">
-        <v>5235.083</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74122.8821</v>
       </c>
       <c r="I9" s="1">
-        <v>78779.349</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0483</v>
+        <v>74122.8821</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68779.349</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.6862</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8779.349</v>
       </c>
-      <c r="O9" s="1">
-        <v>1220.651</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84077.3567</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0382</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.3909</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5235.083</v>
       </c>
       <c r="F10" s="1">
         <v>729.0445</v>
       </c>
       <c r="G10" s="1">
-        <v>5964.1275</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>91317.3526</v>
+        <v>80154.8793</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>1220.651</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0902</v>
+        <v>81375.5303</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.2815</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11220.651</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91317.3526</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0293</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.1095</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5964.1275</v>
       </c>
       <c r="F11" s="1">
         <v>564.1469</v>
       </c>
       <c r="G11" s="1">
-        <v>6528.2744</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>95581.1073</v>
       </c>
       <c r="I11" s="1">
-        <v>99088.1244</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1783</v>
+        <v>95581.1073</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89088.1244</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9373</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9088.124400000001</v>
       </c>
-      <c r="O11" s="1">
-        <v>911.8756</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105534.0011</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0416</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.1222</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6528.2744</v>
       </c>
       <c r="F12" s="1">
         <v>676.823</v>
       </c>
       <c r="G12" s="1">
-        <v>7205.0974</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115559.6749</v>
+        <v>104704.3817</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>911.8756</v>
       </c>
       <c r="J12" s="1">
-        <v>15.267</v>
+        <v>105616.2573</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>15.318</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.2</v>
       </c>
-      <c r="L12" s="1">
-        <v>1175.0894</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-9736.7863</v>
+        <v>1073.543</v>
       </c>
       <c r="O12" s="1">
-        <v>1175.0894</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116734.7643</v>
+        <v>-9838.332700000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0104</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.3453</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>7205.0974</v>
       </c>
       <c r="F13" s="1">
         <v>144.82</v>
       </c>
       <c r="G13" s="1">
-        <v>7349.9174</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>124326.1169</v>
       </c>
       <c r="I13" s="1">
-        <v>112511.947</v>
+        <v>1073.543</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3079</v>
+        <v>125399.6598</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102511.947</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.2277</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2511.947</v>
       </c>
-      <c r="O13" s="1">
-        <v>8663.142400000001</v>
-      </c>
-      <c r="P13" s="1">
-        <v>135488.1725</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.06909999999999999</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.8769</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7349.9174</v>
       </c>
       <c r="F14" s="1">
         <v>-7349.9174</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130712.4015</v>
       </c>
       <c r="I14" s="1">
-        <v>112511.947</v>
+        <v>8561.5959</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3079</v>
+        <v>139273.9974</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102511.947</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.9474</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130712.4015</v>
       </c>
-      <c r="O14" s="1">
-        <v>139375.5438</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139375.5438</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.042</v>
+        <v>0.0286</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.7433</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>635.1908</v>
       </c>
       <c r="G2" s="1">
-        <v>635.1908</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.7433</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.1934</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>635.1908</v>
       </c>
       <c r="F3" s="1">
         <v>615.6317</v>
       </c>
       <c r="G3" s="1">
-        <v>1250.8225</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10232.5434</v>
       </c>
       <c r="I3" s="1">
-        <v>19969.1697</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9648</v>
+        <v>10232.5434</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9969.1697</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.6948</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9969.1697</v>
       </c>
-      <c r="O3" s="1">
-        <v>30.8303</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20180.8303</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0117</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.2218</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1250.8225</v>
       </c>
       <c r="F4" s="1">
         <v>658.9779</v>
       </c>
       <c r="G4" s="1">
-        <v>1909.8004</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28919.917</v>
+        <v>18941.0801</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>30.8303</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7084</v>
+        <v>18971.9104</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9895</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10030.8303</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>28919.917</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0418</v>
+        <v>-0.0623</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.0702</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1909.8004</v>
       </c>
       <c r="F5" s="1">
         <v>710.722</v>
       </c>
       <c r="G5" s="1">
-        <v>2620.5224</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>36680.238</v>
+        <v>26732.0496</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.2641</v>
+        <v>26732.0496</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7084</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36680.238</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0575</v>
+        <v>-0.07729999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.8476</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2620.5224</v>
       </c>
       <c r="F6" s="1">
         <v>722.1468</v>
       </c>
       <c r="G6" s="1">
-        <v>3342.6692</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>46047.9421</v>
+        <v>36099.7923</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.9581</v>
+        <v>36099.7923</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.2641</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>46047.9421</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0135</v>
+        <v>-0.0172</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.6185</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3342.6692</v>
       </c>
       <c r="F7" s="1">
         <v>684.0647</v>
       </c>
       <c r="G7" s="1">
-        <v>4026.7339</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>58559.583</v>
+        <v>48611.4351</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.9004</v>
+        <v>48611.4351</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.9581</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58559.583</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0448</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.2363</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4026.7339</v>
       </c>
       <c r="F8" s="1">
         <v>656.3273</v>
       </c>
       <c r="G8" s="1">
-        <v>4683.0612</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>70982.5638</v>
+        <v>61034.4137</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9475</v>
+        <v>61034.4137</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.9004</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70982.5638</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0353</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.9097</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4683.0612</v>
       </c>
       <c r="F9" s="1">
         <v>628.5474</v>
       </c>
       <c r="G9" s="1">
-        <v>5311.6086</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84067.89139999999</v>
+        <v>74119.74649999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.0614</v>
+        <v>74119.74649999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.9475</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84067.89139999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0381</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.3909</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5311.6086</v>
       </c>
       <c r="F10" s="1">
         <v>649.7346</v>
       </c>
       <c r="G10" s="1">
-        <v>5961.3432</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>91274.72139999999</v>
+        <v>81326.5702</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.0973</v>
+        <v>81326.5702</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.0614</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91274.72139999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0297</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.1095</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5961.3432</v>
       </c>
       <c r="F11" s="1">
         <v>620.7517</v>
       </c>
       <c r="G11" s="1">
-        <v>6582.0949</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>105484.6528</v>
+        <v>95536.4856</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.1927</v>
+        <v>95536.4856</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.0973</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105484.6528</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0416</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.1222</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6582.0949</v>
       </c>
       <c r="F12" s="1">
         <v>620.2627</v>
       </c>
       <c r="G12" s="1">
-        <v>7202.3576</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>115515.7333</v>
+        <v>105567.5872</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2728</v>
+        <v>105567.5872</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>15.1927</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.2</v>
       </c>
-      <c r="L12" s="1">
-        <v>1184.7771</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-8815.222900000001</v>
+        <v>1073.0418</v>
       </c>
       <c r="O12" s="1">
-        <v>1184.7771</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116700.5103</v>
+        <v>-8926.958199999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0105</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.3453</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7202.3576</v>
       </c>
       <c r="F13" s="1">
         <v>355.4428</v>
       </c>
       <c r="G13" s="1">
-        <v>7557.8005</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>124278.8418</v>
       </c>
       <c r="I13" s="1">
-        <v>116165.2624</v>
+        <v>1073.0418</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3702</v>
+        <v>125351.8836</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106165.2624</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.7403</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6165.2624</v>
       </c>
-      <c r="O13" s="1">
-        <v>5019.5147</v>
-      </c>
-      <c r="P13" s="1">
-        <v>135431.629</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0689</v>
+        <v>0.0847</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.8769</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7557.8005</v>
       </c>
       <c r="F14" s="1">
         <v>-7557.8005</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134409.435</v>
       </c>
       <c r="I14" s="1">
-        <v>116165.2624</v>
+        <v>4907.7794</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3702</v>
+        <v>139317.2144</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106165.2624</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.0471</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>134409.435</v>
       </c>
-      <c r="O14" s="1">
-        <v>139428.9497</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139428.9497</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0413</v>
+        <v>0.0293</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4453,7 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.8287</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.4433</v>
+        <v>14.1664</v>
       </c>
       <c r="D3" s="1">
-        <v>15.2544</v>
+        <v>13.8164</v>
       </c>
       <c r="E3" s="1">
-        <v>15.273</v>
+        <v>13.8742</v>
       </c>
       <c r="F3" s="1">
-        <v>15.3079</v>
+        <v>13.9474</v>
       </c>
       <c r="G3" s="1">
-        <v>15.3702</v>
+        <v>14.0471</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1406</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0679</v>
+        <v>0.1336</v>
       </c>
       <c r="D4" s="3">
-        <v>0.062</v>
+        <v>0.1279</v>
       </c>
       <c r="E4" s="3">
-        <v>0.065</v>
+        <v>0.131</v>
       </c>
       <c r="F4" s="3">
-        <v>0.067</v>
+        <v>0.1328</v>
       </c>
       <c r="G4" s="3">
-        <v>0.06710000000000001</v>
+        <v>0.1328</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1597</v>
       </c>
       <c r="C5" s="3">
-        <v>0.137</v>
+        <v>0.1646</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1362</v>
+        <v>0.1616</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1371</v>
+        <v>0.163</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1376</v>
+        <v>0.1641</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1374</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.753</v>
       </c>
       <c r="C6" s="4">
-        <v>0.347</v>
+        <v>0.6885</v>
       </c>
       <c r="D6" s="4">
-        <v>0.3057</v>
+        <v>0.6657</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3262</v>
+        <v>0.6792</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3388</v>
+        <v>0.6851</v>
       </c>
       <c r="G6" s="4">
-        <v>0.3403</v>
+        <v>0.6841</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3144</v>
+        <v>0.1269</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3133</v>
+        <v>0.3122</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3151</v>
+        <v>0.3137</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3157</v>
+        <v>0.3139</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3142</v>
+        <v>0.3123</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1184.7552</v>
+        <v>1073.0199</v>
       </c>
       <c r="D8" s="1">
-        <v>1123.1748</v>
+        <v>1058.0559</v>
       </c>
       <c r="E8" s="1">
-        <v>1148.7862</v>
+        <v>1074.1329</v>
       </c>
       <c r="F8" s="1">
-        <v>1175.0894</v>
+        <v>1073.543</v>
       </c>
       <c r="G8" s="1">
-        <v>1184.7771</v>
+        <v>1073.0418</v>
       </c>
     </row>
   </sheetData>
